--- a/tests/common_test_shell/resultformat.xlsx
+++ b/tests/common_test_shell/resultformat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AFFDF5-5A3A-4F60-B62E-97F138F6E920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE66051-259E-4484-BCD2-CD3233A6AD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="50">
   <si>
     <t>模拟延迟</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,11 +147,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>写</t>
+    <t>1c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读</t>
+    <t>1gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1gr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程多文件写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程多文件读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线程多文件读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线程多文件写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间(s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1hc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1hs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,11 +293,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,11 +334,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R189"/>
+  <dimension ref="A1:R196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B79"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,28 +638,33 @@
     <col min="18" max="18" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
       <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="M1" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,22 +699,19 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -660,15 +733,14 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -690,15 +762,14 @@
       <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -720,15 +791,14 @@
       <c r="M5" s="1">
         <v>20</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -750,15 +820,14 @@
       <c r="M6" s="1">
         <v>40</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -780,15 +849,14 @@
       <c r="M7" s="1">
         <v>60</v>
       </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>80</v>
       </c>
@@ -810,15 +878,14 @@
       <c r="M8" s="1">
         <v>80</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>100</v>
       </c>
@@ -840,15 +907,14 @@
       <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -870,15 +936,14 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>10</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -900,15 +965,14 @@
       <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="N11" s="1">
-        <v>10</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -930,15 +994,14 @@
       <c r="M12" s="1">
         <v>20</v>
       </c>
-      <c r="N12" s="1">
-        <v>10</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -960,15 +1023,14 @@
       <c r="M13" s="1">
         <v>40</v>
       </c>
-      <c r="N13" s="1">
-        <v>10</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>60</v>
       </c>
@@ -990,15 +1052,14 @@
       <c r="M14" s="1">
         <v>60</v>
       </c>
-      <c r="N14" s="1">
-        <v>10</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -1020,15 +1081,14 @@
       <c r="M15" s="1">
         <v>80</v>
       </c>
-      <c r="N15" s="1">
-        <v>10</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>100</v>
       </c>
@@ -1050,15 +1110,14 @@
       <c r="M16" s="3">
         <v>100</v>
       </c>
-      <c r="N16" s="1">
-        <v>10</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1080,15 +1139,14 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1">
-        <v>20</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -1110,15 +1168,14 @@
       <c r="M18" s="1">
         <v>10</v>
       </c>
-      <c r="N18" s="1">
-        <v>20</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1140,15 +1197,14 @@
       <c r="M19" s="1">
         <v>20</v>
       </c>
-      <c r="N19" s="1">
-        <v>20</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>40</v>
       </c>
@@ -1170,15 +1226,14 @@
       <c r="M20" s="1">
         <v>40</v>
       </c>
-      <c r="N20" s="1">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>60</v>
       </c>
@@ -1200,15 +1255,14 @@
       <c r="M21" s="1">
         <v>60</v>
       </c>
-      <c r="N21" s="1">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>80</v>
       </c>
@@ -1230,15 +1284,14 @@
       <c r="M22" s="1">
         <v>80</v>
       </c>
-      <c r="N22" s="1">
-        <v>20</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>100</v>
       </c>
@@ -1260,15 +1313,14 @@
       <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="1">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1290,15 +1342,14 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="3">
-        <v>50</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -1320,15 +1371,14 @@
       <c r="M25" s="1">
         <v>10</v>
       </c>
-      <c r="N25" s="3">
-        <v>50</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1350,15 +1400,14 @@
       <c r="M26" s="1">
         <v>20</v>
       </c>
-      <c r="N26" s="3">
-        <v>50</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -1380,15 +1429,14 @@
       <c r="M27" s="1">
         <v>40</v>
       </c>
-      <c r="N27" s="3">
-        <v>50</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>60</v>
       </c>
@@ -1410,15 +1458,14 @@
       <c r="M28" s="1">
         <v>60</v>
       </c>
-      <c r="N28" s="3">
-        <v>50</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>80</v>
       </c>
@@ -1440,15 +1487,14 @@
       <c r="M29" s="1">
         <v>80</v>
       </c>
-      <c r="N29" s="3">
-        <v>50</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>100</v>
       </c>
@@ -1470,15 +1516,14 @@
       <c r="M30" s="3">
         <v>100</v>
       </c>
-      <c r="N30" s="3">
-        <v>50</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1500,15 +1545,14 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="4">
-        <v>100</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -1530,15 +1574,14 @@
       <c r="M32" s="1">
         <v>10</v>
       </c>
-      <c r="N32" s="4">
-        <v>100</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -1560,15 +1603,14 @@
       <c r="M33" s="1">
         <v>20</v>
       </c>
-      <c r="N33" s="4">
-        <v>100</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40</v>
       </c>
@@ -1590,15 +1632,14 @@
       <c r="M34" s="1">
         <v>40</v>
       </c>
-      <c r="N34" s="4">
-        <v>100</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>60</v>
       </c>
@@ -1620,15 +1661,14 @@
       <c r="M35" s="1">
         <v>60</v>
       </c>
-      <c r="N35" s="4">
-        <v>100</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>80</v>
       </c>
@@ -1650,15 +1690,14 @@
       <c r="M36" s="1">
         <v>80</v>
       </c>
-      <c r="N36" s="4">
-        <v>100</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>100</v>
       </c>
@@ -1680,15 +1719,14 @@
       <c r="M37" s="3">
         <v>100</v>
       </c>
-      <c r="N37" s="4">
-        <v>100</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1707,13 +1745,17 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1732,13 +1774,17 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M39" s="1">
+        <v>10</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -1757,13 +1803,17 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M40" s="1">
+        <v>20</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1782,13 +1832,17 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M41" s="1">
+        <v>40</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>60</v>
       </c>
@@ -1807,8 +1861,17 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M42" s="1">
+        <v>60</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>80</v>
       </c>
@@ -1827,17 +1890,17 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="M43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M43" s="1">
+        <v>80</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>100</v>
       </c>
@@ -1856,26 +1919,17 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="M44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -1897,15 +1951,14 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>10</v>
       </c>
@@ -1927,15 +1980,14 @@
       <c r="M46" s="1">
         <v>10</v>
       </c>
-      <c r="N46" s="1">
-        <v>1</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -1957,15 +2009,14 @@
       <c r="M47" s="1">
         <v>20</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40</v>
       </c>
@@ -1987,15 +2038,14 @@
       <c r="M48" s="1">
         <v>40</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -2017,15 +2067,14 @@
       <c r="M49" s="1">
         <v>60</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>80</v>
       </c>
@@ -2047,15 +2096,14 @@
       <c r="M50" s="1">
         <v>80</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>100</v>
       </c>
@@ -2077,15 +2125,14 @@
       <c r="M51" s="3">
         <v>100</v>
       </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2107,15 +2154,14 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1">
-        <v>10</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -2137,15 +2183,14 @@
       <c r="M53" s="1">
         <v>10</v>
       </c>
-      <c r="N53" s="1">
-        <v>10</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>20</v>
       </c>
@@ -2167,15 +2212,14 @@
       <c r="M54" s="1">
         <v>20</v>
       </c>
-      <c r="N54" s="1">
-        <v>10</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>40</v>
       </c>
@@ -2197,15 +2241,14 @@
       <c r="M55" s="1">
         <v>40</v>
       </c>
-      <c r="N55" s="1">
-        <v>10</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>60</v>
       </c>
@@ -2227,15 +2270,14 @@
       <c r="M56" s="1">
         <v>60</v>
       </c>
-      <c r="N56" s="1">
-        <v>10</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>80</v>
       </c>
@@ -2257,15 +2299,14 @@
       <c r="M57" s="1">
         <v>80</v>
       </c>
-      <c r="N57" s="1">
-        <v>10</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>100</v>
       </c>
@@ -2287,15 +2328,14 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="1">
-        <v>10</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -2317,15 +2357,14 @@
       <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="1">
-        <v>20</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>10</v>
       </c>
@@ -2347,15 +2386,14 @@
       <c r="M60" s="1">
         <v>10</v>
       </c>
-      <c r="N60" s="1">
-        <v>20</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>20</v>
       </c>
@@ -2377,15 +2415,14 @@
       <c r="M61" s="1">
         <v>20</v>
       </c>
-      <c r="N61" s="1">
-        <v>20</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>40</v>
       </c>
@@ -2407,15 +2444,14 @@
       <c r="M62" s="1">
         <v>40</v>
       </c>
-      <c r="N62" s="1">
-        <v>20</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -2437,15 +2473,14 @@
       <c r="M63" s="1">
         <v>60</v>
       </c>
-      <c r="N63" s="1">
-        <v>20</v>
-      </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>80</v>
       </c>
@@ -2467,15 +2502,14 @@
       <c r="M64" s="1">
         <v>80</v>
       </c>
-      <c r="N64" s="1">
-        <v>20</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>100</v>
       </c>
@@ -2497,15 +2531,14 @@
       <c r="M65" s="3">
         <v>100</v>
       </c>
-      <c r="N65" s="1">
-        <v>20</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2527,15 +2560,14 @@
       <c r="M66" s="1">
         <v>0</v>
       </c>
-      <c r="N66" s="3">
-        <v>50</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>10</v>
       </c>
@@ -2557,15 +2589,14 @@
       <c r="M67" s="1">
         <v>10</v>
       </c>
-      <c r="N67" s="3">
-        <v>50</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>20</v>
       </c>
@@ -2587,15 +2618,14 @@
       <c r="M68" s="1">
         <v>20</v>
       </c>
-      <c r="N68" s="3">
-        <v>50</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>40</v>
       </c>
@@ -2617,15 +2647,14 @@
       <c r="M69" s="1">
         <v>40</v>
       </c>
-      <c r="N69" s="3">
-        <v>50</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>60</v>
       </c>
@@ -2647,15 +2676,14 @@
       <c r="M70" s="1">
         <v>60</v>
       </c>
-      <c r="N70" s="3">
-        <v>50</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>80</v>
       </c>
@@ -2677,15 +2705,14 @@
       <c r="M71" s="1">
         <v>80</v>
       </c>
-      <c r="N71" s="3">
-        <v>50</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>100</v>
       </c>
@@ -2707,15 +2734,14 @@
       <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
-        <v>50</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2737,15 +2763,14 @@
       <c r="M73" s="1">
         <v>0</v>
       </c>
-      <c r="N73" s="4">
-        <v>100</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>10</v>
       </c>
@@ -2767,15 +2792,14 @@
       <c r="M74" s="1">
         <v>10</v>
       </c>
-      <c r="N74" s="4">
-        <v>100</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>20</v>
       </c>
@@ -2797,15 +2821,14 @@
       <c r="M75" s="1">
         <v>20</v>
       </c>
-      <c r="N75" s="4">
-        <v>100</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>40</v>
       </c>
@@ -2827,15 +2850,14 @@
       <c r="M76" s="1">
         <v>40</v>
       </c>
-      <c r="N76" s="4">
-        <v>100</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>60</v>
       </c>
@@ -2857,15 +2879,14 @@
       <c r="M77" s="1">
         <v>60</v>
       </c>
-      <c r="N77" s="4">
-        <v>100</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>80</v>
       </c>
@@ -2887,15 +2908,14 @@
       <c r="M78" s="1">
         <v>80</v>
       </c>
-      <c r="N78" s="4">
-        <v>100</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>100</v>
       </c>
@@ -2917,13 +2937,12 @@
       <c r="M79" s="3">
         <v>100</v>
       </c>
-      <c r="N79" s="4">
-        <v>100</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
+      <c r="N79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
@@ -2946,16 +2965,16 @@
       <c r="R81" s="8"/>
     </row>
     <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
       <c r="K82" s="7"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -2966,19 +2985,25 @@
       <c r="R82" s="8"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
+      <c r="A83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
+      <c r="H83" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" s="13"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
@@ -2986,19 +3011,43 @@
       <c r="R83" s="8"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
+      <c r="H84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
@@ -3006,19 +3055,27 @@
       <c r="R84" s="8"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="6"/>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="7"/>
@@ -3026,19 +3083,27 @@
       <c r="R85" s="7"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
+      <c r="A86" s="1">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="6"/>
+      <c r="H86" s="1">
+        <v>10</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
@@ -3046,19 +3111,27 @@
       <c r="R86" s="8"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
+      <c r="A87" s="1">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="6"/>
+      <c r="H87" s="1">
+        <v>20</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
@@ -3066,19 +3139,27 @@
       <c r="R87" s="8"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="6"/>
+      <c r="A88" s="1">
+        <v>40</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="1">
+        <v>40</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
@@ -3086,19 +3167,27 @@
       <c r="R88" s="8"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
+      <c r="A89" s="1">
+        <v>60</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="6"/>
+      <c r="H89" s="1">
+        <v>60</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
@@ -3106,19 +3195,27 @@
       <c r="R89" s="8"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
+      <c r="A90" s="1">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="6"/>
+      <c r="H90" s="1">
+        <v>80</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
@@ -3126,19 +3223,27 @@
       <c r="R90" s="8"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
+      <c r="A91" s="3">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="6"/>
+      <c r="H91" s="3">
+        <v>100</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
@@ -3146,19 +3251,27 @@
       <c r="R91" s="8"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="6"/>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>10</v>
+      </c>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
@@ -3166,19 +3279,27 @@
       <c r="R92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
+      <c r="A93" s="1">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1">
+        <v>10</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="6"/>
+      <c r="H93" s="1">
+        <v>10</v>
+      </c>
+      <c r="I93" s="1">
+        <v>10</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -3186,19 +3307,27 @@
       <c r="R93" s="8"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
+      <c r="A94" s="1">
+        <v>20</v>
+      </c>
+      <c r="B94" s="1">
+        <v>10</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="6"/>
+      <c r="H94" s="1">
+        <v>20</v>
+      </c>
+      <c r="I94" s="1">
+        <v>10</v>
+      </c>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
@@ -3206,19 +3335,27 @@
       <c r="R94" s="8"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
+      <c r="A95" s="1">
+        <v>40</v>
+      </c>
+      <c r="B95" s="1">
+        <v>10</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="6"/>
+      <c r="H95" s="1">
+        <v>40</v>
+      </c>
+      <c r="I95" s="1">
+        <v>10</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -3226,19 +3363,27 @@
       <c r="R95" s="8"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
+      <c r="A96" s="1">
+        <v>60</v>
+      </c>
+      <c r="B96" s="1">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="6"/>
+      <c r="H96" s="1">
+        <v>60</v>
+      </c>
+      <c r="I96" s="1">
+        <v>10</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
@@ -3246,19 +3391,27 @@
       <c r="R96" s="8"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
+      <c r="A97" s="1">
+        <v>80</v>
+      </c>
+      <c r="B97" s="1">
+        <v>10</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="6"/>
+      <c r="H97" s="1">
+        <v>80</v>
+      </c>
+      <c r="I97" s="1">
+        <v>10</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
@@ -3266,19 +3419,27 @@
       <c r="R97" s="8"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
+      <c r="A98" s="3">
+        <v>100</v>
+      </c>
+      <c r="B98" s="1">
+        <v>10</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="6"/>
+      <c r="H98" s="3">
+        <v>100</v>
+      </c>
+      <c r="I98" s="1">
+        <v>10</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
@@ -3286,19 +3447,27 @@
       <c r="R98" s="8"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="6"/>
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>20</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>20</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
@@ -3306,19 +3475,27 @@
       <c r="R99" s="8"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="8"/>
+      <c r="A100" s="1">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1">
+        <v>20</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="6"/>
+      <c r="H100" s="1">
+        <v>10</v>
+      </c>
+      <c r="I100" s="1">
+        <v>20</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
@@ -3326,19 +3503,27 @@
       <c r="R100" s="8"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
+      <c r="A101" s="1">
+        <v>20</v>
+      </c>
+      <c r="B101" s="1">
+        <v>20</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="6"/>
+      <c r="H101" s="1">
+        <v>20</v>
+      </c>
+      <c r="I101" s="1">
+        <v>20</v>
+      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
@@ -3346,19 +3531,27 @@
       <c r="R101" s="8"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
+      <c r="A102" s="1">
+        <v>40</v>
+      </c>
+      <c r="B102" s="1">
+        <v>20</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="6"/>
+      <c r="H102" s="1">
+        <v>40</v>
+      </c>
+      <c r="I102" s="1">
+        <v>20</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
@@ -3366,19 +3559,27 @@
       <c r="R102" s="8"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
+      <c r="A103" s="1">
+        <v>60</v>
+      </c>
+      <c r="B103" s="1">
+        <v>20</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="6"/>
+      <c r="H103" s="1">
+        <v>60</v>
+      </c>
+      <c r="I103" s="1">
+        <v>20</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
@@ -3386,19 +3587,27 @@
       <c r="R103" s="8"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
+      <c r="A104" s="1">
+        <v>80</v>
+      </c>
+      <c r="B104" s="1">
+        <v>20</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="6"/>
+      <c r="H104" s="1">
+        <v>80</v>
+      </c>
+      <c r="I104" s="1">
+        <v>20</v>
+      </c>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
@@ -3406,19 +3615,27 @@
       <c r="R104" s="8"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="8"/>
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+      <c r="B105" s="1">
+        <v>20</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="6"/>
+      <c r="H105" s="3">
+        <v>100</v>
+      </c>
+      <c r="I105" s="1">
+        <v>20</v>
+      </c>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
@@ -3426,19 +3643,27 @@
       <c r="R105" s="8"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" s="3">
+        <v>50</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="6"/>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
+        <v>50</v>
+      </c>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
@@ -3446,19 +3671,27 @@
       <c r="R106" s="8"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="8"/>
+      <c r="A107" s="1">
+        <v>10</v>
+      </c>
+      <c r="B107" s="3">
+        <v>50</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="6"/>
+      <c r="H107" s="1">
+        <v>10</v>
+      </c>
+      <c r="I107" s="3">
+        <v>50</v>
+      </c>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
@@ -3466,19 +3699,27 @@
       <c r="R107" s="8"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
+      <c r="A108" s="1">
+        <v>20</v>
+      </c>
+      <c r="B108" s="3">
+        <v>50</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="6"/>
+      <c r="H108" s="1">
+        <v>20</v>
+      </c>
+      <c r="I108" s="3">
+        <v>50</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
@@ -3486,19 +3727,27 @@
       <c r="R108" s="8"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
+      <c r="A109" s="1">
+        <v>40</v>
+      </c>
+      <c r="B109" s="3">
+        <v>50</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="6"/>
+      <c r="H109" s="1">
+        <v>40</v>
+      </c>
+      <c r="I109" s="3">
+        <v>50</v>
+      </c>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
@@ -3506,19 +3755,27 @@
       <c r="R109" s="8"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="6"/>
+      <c r="A110" s="1">
+        <v>60</v>
+      </c>
+      <c r="B110" s="3">
+        <v>50</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="1">
+        <v>60</v>
+      </c>
+      <c r="I110" s="3">
+        <v>50</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
@@ -3526,19 +3783,27 @@
       <c r="R110" s="8"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="8"/>
+      <c r="A111" s="1">
+        <v>80</v>
+      </c>
+      <c r="B111" s="3">
+        <v>50</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="6"/>
+      <c r="H111" s="1">
+        <v>80</v>
+      </c>
+      <c r="I111" s="3">
+        <v>50</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
@@ -3546,19 +3811,27 @@
       <c r="R111" s="8"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
+      <c r="A112" s="3">
+        <v>100</v>
+      </c>
+      <c r="B112" s="3">
+        <v>50</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="6"/>
+      <c r="H112" s="3">
+        <v>100</v>
+      </c>
+      <c r="I112" s="3">
+        <v>50</v>
+      </c>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
@@ -3566,19 +3839,27 @@
       <c r="R112" s="8"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
+      <c r="B113" s="4">
+        <v>100</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
       <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="6"/>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>100</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
@@ -3586,19 +3867,27 @@
       <c r="R113" s="8"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
+      <c r="A114" s="1">
+        <v>10</v>
+      </c>
+      <c r="B114" s="4">
+        <v>100</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
       <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="6"/>
+      <c r="H114" s="1">
+        <v>10</v>
+      </c>
+      <c r="I114" s="4">
+        <v>100</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
@@ -3606,19 +3895,27 @@
       <c r="R114" s="8"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="8"/>
+      <c r="A115" s="1">
+        <v>20</v>
+      </c>
+      <c r="B115" s="4">
+        <v>100</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="6"/>
+      <c r="H115" s="1">
+        <v>20</v>
+      </c>
+      <c r="I115" s="4">
+        <v>100</v>
+      </c>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
@@ -3626,19 +3923,27 @@
       <c r="R115" s="8"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="8"/>
+      <c r="A116" s="1">
+        <v>40</v>
+      </c>
+      <c r="B116" s="4">
+        <v>100</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="6"/>
+      <c r="H116" s="1">
+        <v>40</v>
+      </c>
+      <c r="I116" s="4">
+        <v>100</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
@@ -3646,19 +3951,27 @@
       <c r="R116" s="8"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="8"/>
+      <c r="A117" s="1">
+        <v>60</v>
+      </c>
+      <c r="B117" s="4">
+        <v>100</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="6"/>
+      <c r="H117" s="1">
+        <v>60</v>
+      </c>
+      <c r="I117" s="4">
+        <v>100</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
@@ -3666,19 +3979,27 @@
       <c r="R117" s="8"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="8"/>
+      <c r="A118" s="1">
+        <v>80</v>
+      </c>
+      <c r="B118" s="4">
+        <v>100</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="6"/>
+      <c r="H118" s="1">
+        <v>80</v>
+      </c>
+      <c r="I118" s="4">
+        <v>100</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
@@ -3686,19 +4007,27 @@
       <c r="R118" s="8"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="8"/>
+      <c r="A119" s="3">
+        <v>100</v>
+      </c>
+      <c r="B119" s="4">
+        <v>100</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="6"/>
+      <c r="H119" s="3">
+        <v>100</v>
+      </c>
+      <c r="I119" s="4">
+        <v>100</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
@@ -3709,9 +4038,8 @@
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
+      <c r="F120" s="7"/>
       <c r="G120" s="6"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
@@ -3726,19 +4054,25 @@
       <c r="R120" s="8"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="12"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
+      <c r="A121" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J121" s="13"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
@@ -3746,19 +4080,43 @@
       <c r="R121" s="8"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" s="8"/>
+      <c r="H122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
@@ -3766,19 +4124,27 @@
       <c r="R122" s="8"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
+      <c r="A123" s="1">
+        <v>0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
@@ -3786,19 +4152,27 @@
       <c r="R123" s="8"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
+      <c r="A124" s="1">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="1">
+        <v>10</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
@@ -3806,19 +4180,27 @@
       <c r="R124" s="8"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
+      <c r="A125" s="1">
+        <v>20</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="1">
+        <v>20</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
@@ -3826,19 +4208,27 @@
       <c r="R125" s="8"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
+      <c r="A126" s="1">
+        <v>40</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="1">
+        <v>40</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -3846,19 +4236,27 @@
       <c r="R126" s="8"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="8"/>
+      <c r="A127" s="1">
+        <v>60</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="6"/>
+      <c r="H127" s="1">
+        <v>60</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
       <c r="P127" s="7"/>
@@ -3866,19 +4264,27 @@
       <c r="R127" s="7"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="8"/>
+      <c r="A128" s="1">
+        <v>80</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
       <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="6"/>
+      <c r="H128" s="1">
+        <v>80</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -3886,19 +4292,27 @@
       <c r="R128" s="8"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="8"/>
+      <c r="A129" s="3">
+        <v>100</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
       <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="6"/>
+      <c r="H129" s="3">
+        <v>100</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
@@ -3906,19 +4320,27 @@
       <c r="R129" s="8"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="6"/>
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1">
+        <v>10</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>10</v>
+      </c>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
@@ -3926,19 +4348,27 @@
       <c r="R130" s="8"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="6"/>
+      <c r="A131" s="1">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1">
+        <v>10</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="1">
+        <v>10</v>
+      </c>
+      <c r="I131" s="1">
+        <v>10</v>
+      </c>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
@@ -3946,19 +4376,27 @@
       <c r="R131" s="8"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A132" s="12"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="6"/>
+      <c r="A132" s="1">
+        <v>20</v>
+      </c>
+      <c r="B132" s="1">
+        <v>10</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="1">
+        <v>20</v>
+      </c>
+      <c r="I132" s="1">
+        <v>10</v>
+      </c>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
@@ -3966,19 +4404,27 @@
       <c r="R132" s="8"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="8"/>
+      <c r="A133" s="1">
+        <v>40</v>
+      </c>
+      <c r="B133" s="1">
+        <v>10</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
       <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="6"/>
+      <c r="H133" s="1">
+        <v>40</v>
+      </c>
+      <c r="I133" s="1">
+        <v>10</v>
+      </c>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
@@ -3986,19 +4432,27 @@
       <c r="R133" s="8"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="8"/>
+      <c r="A134" s="1">
+        <v>60</v>
+      </c>
+      <c r="B134" s="1">
+        <v>10</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="6"/>
+      <c r="H134" s="1">
+        <v>60</v>
+      </c>
+      <c r="I134" s="1">
+        <v>10</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
@@ -4006,19 +4460,27 @@
       <c r="R134" s="8"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="6"/>
+      <c r="A135" s="1">
+        <v>80</v>
+      </c>
+      <c r="B135" s="1">
+        <v>10</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="1">
+        <v>80</v>
+      </c>
+      <c r="I135" s="1">
+        <v>10</v>
+      </c>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
@@ -4026,19 +4488,27 @@
       <c r="R135" s="8"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="6"/>
+      <c r="A136" s="3">
+        <v>100</v>
+      </c>
+      <c r="B136" s="1">
+        <v>10</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="3">
+        <v>100</v>
+      </c>
+      <c r="I136" s="1">
+        <v>10</v>
+      </c>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
@@ -4046,19 +4516,27 @@
       <c r="R136" s="8"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="6"/>
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1">
+        <v>20</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>20</v>
+      </c>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
@@ -4066,19 +4544,27 @@
       <c r="R137" s="8"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="8"/>
+      <c r="A138" s="1">
+        <v>10</v>
+      </c>
+      <c r="B138" s="1">
+        <v>20</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
       <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="6"/>
+      <c r="H138" s="1">
+        <v>10</v>
+      </c>
+      <c r="I138" s="1">
+        <v>20</v>
+      </c>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
@@ -4086,19 +4572,27 @@
       <c r="R138" s="8"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="8"/>
+      <c r="A139" s="1">
+        <v>20</v>
+      </c>
+      <c r="B139" s="1">
+        <v>20</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="6"/>
+      <c r="H139" s="1">
+        <v>20</v>
+      </c>
+      <c r="I139" s="1">
+        <v>20</v>
+      </c>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
@@ -4106,19 +4600,27 @@
       <c r="R139" s="8"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="8"/>
+      <c r="A140" s="1">
+        <v>40</v>
+      </c>
+      <c r="B140" s="1">
+        <v>20</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="6"/>
+      <c r="H140" s="1">
+        <v>40</v>
+      </c>
+      <c r="I140" s="1">
+        <v>20</v>
+      </c>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
@@ -4126,19 +4628,27 @@
       <c r="R140" s="8"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="6"/>
+      <c r="A141" s="1">
+        <v>60</v>
+      </c>
+      <c r="B141" s="1">
+        <v>20</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="1">
+        <v>60</v>
+      </c>
+      <c r="I141" s="1">
+        <v>20</v>
+      </c>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
@@ -4146,19 +4656,27 @@
       <c r="R141" s="8"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="6"/>
+      <c r="A142" s="1">
+        <v>80</v>
+      </c>
+      <c r="B142" s="1">
+        <v>20</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="1">
+        <v>80</v>
+      </c>
+      <c r="I142" s="1">
+        <v>20</v>
+      </c>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
@@ -4166,19 +4684,27 @@
       <c r="R142" s="8"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" s="12"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="6"/>
+      <c r="A143" s="3">
+        <v>100</v>
+      </c>
+      <c r="B143" s="1">
+        <v>20</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="3">
+        <v>100</v>
+      </c>
+      <c r="I143" s="1">
+        <v>20</v>
+      </c>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
@@ -4186,19 +4712,27 @@
       <c r="R143" s="8"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="8"/>
+      <c r="A144" s="1">
+        <v>0</v>
+      </c>
+      <c r="B144" s="3">
+        <v>50</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="6"/>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3">
+        <v>50</v>
+      </c>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
@@ -4206,19 +4740,27 @@
       <c r="R144" s="8"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="8"/>
+      <c r="A145" s="1">
+        <v>10</v>
+      </c>
+      <c r="B145" s="3">
+        <v>50</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="6"/>
+      <c r="H145" s="1">
+        <v>10</v>
+      </c>
+      <c r="I145" s="3">
+        <v>50</v>
+      </c>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
@@ -4226,19 +4768,27 @@
       <c r="R145" s="8"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="6"/>
+      <c r="A146" s="1">
+        <v>20</v>
+      </c>
+      <c r="B146" s="3">
+        <v>50</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="1">
+        <v>20</v>
+      </c>
+      <c r="I146" s="3">
+        <v>50</v>
+      </c>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
@@ -4246,19 +4796,27 @@
       <c r="R146" s="8"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="6"/>
+      <c r="A147" s="1">
+        <v>40</v>
+      </c>
+      <c r="B147" s="3">
+        <v>50</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="1">
+        <v>40</v>
+      </c>
+      <c r="I147" s="3">
+        <v>50</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
@@ -4266,19 +4824,27 @@
       <c r="R147" s="8"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="6"/>
+      <c r="A148" s="1">
+        <v>60</v>
+      </c>
+      <c r="B148" s="3">
+        <v>50</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="1">
+        <v>60</v>
+      </c>
+      <c r="I148" s="3">
+        <v>50</v>
+      </c>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
@@ -4286,19 +4852,27 @@
       <c r="R148" s="8"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="8"/>
+      <c r="A149" s="1">
+        <v>80</v>
+      </c>
+      <c r="B149" s="3">
+        <v>50</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
       <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="6"/>
+      <c r="H149" s="1">
+        <v>80</v>
+      </c>
+      <c r="I149" s="3">
+        <v>50</v>
+      </c>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
@@ -4306,19 +4880,27 @@
       <c r="R149" s="8"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="8"/>
+      <c r="A150" s="3">
+        <v>100</v>
+      </c>
+      <c r="B150" s="3">
+        <v>50</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="6"/>
+      <c r="H150" s="3">
+        <v>100</v>
+      </c>
+      <c r="I150" s="3">
+        <v>50</v>
+      </c>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
@@ -4326,19 +4908,27 @@
       <c r="R150" s="8"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="8"/>
+      <c r="A151" s="1">
+        <v>0</v>
+      </c>
+      <c r="B151" s="4">
+        <v>100</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
       <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="6"/>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="4">
+        <v>100</v>
+      </c>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
@@ -4346,19 +4936,27 @@
       <c r="R151" s="8"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A152" s="6"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="6"/>
+      <c r="A152" s="1">
+        <v>10</v>
+      </c>
+      <c r="B152" s="4">
+        <v>100</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="1">
+        <v>10</v>
+      </c>
+      <c r="I152" s="4">
+        <v>100</v>
+      </c>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
       <c r="P152" s="8"/>
@@ -4366,19 +4964,27 @@
       <c r="R152" s="8"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A153" s="6"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="6"/>
+      <c r="A153" s="1">
+        <v>20</v>
+      </c>
+      <c r="B153" s="4">
+        <v>100</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="1">
+        <v>20</v>
+      </c>
+      <c r="I153" s="4">
+        <v>100</v>
+      </c>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
@@ -4386,19 +4992,27 @@
       <c r="R153" s="8"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A154" s="12"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="6"/>
+      <c r="A154" s="1">
+        <v>40</v>
+      </c>
+      <c r="B154" s="4">
+        <v>100</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="1">
+        <v>40</v>
+      </c>
+      <c r="I154" s="4">
+        <v>100</v>
+      </c>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
@@ -4406,19 +5020,27 @@
       <c r="R154" s="8"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="8"/>
+      <c r="A155" s="1">
+        <v>60</v>
+      </c>
+      <c r="B155" s="4">
+        <v>100</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
       <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="6"/>
+      <c r="H155" s="1">
+        <v>60</v>
+      </c>
+      <c r="I155" s="4">
+        <v>100</v>
+      </c>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
       <c r="P155" s="8"/>
@@ -4426,19 +5048,27 @@
       <c r="R155" s="8"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="8"/>
+      <c r="A156" s="1">
+        <v>80</v>
+      </c>
+      <c r="B156" s="4">
+        <v>100</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
       <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="6"/>
+      <c r="H156" s="1">
+        <v>80</v>
+      </c>
+      <c r="I156" s="4">
+        <v>100</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
@@ -4446,19 +5076,27 @@
       <c r="R156" s="8"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="7"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="6"/>
+      <c r="A157" s="3">
+        <v>100</v>
+      </c>
+      <c r="B157" s="4">
+        <v>100</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="3">
+        <v>100</v>
+      </c>
+      <c r="I157" s="4">
+        <v>100</v>
+      </c>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
@@ -4466,12 +5104,6 @@
       <c r="R157" s="8"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="8"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
@@ -4486,12 +5118,6 @@
       <c r="R158" s="8"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="8"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
@@ -4506,608 +5132,1125 @@
       <c r="R159" s="8"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="8"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="8"/>
-      <c r="O160" s="8"/>
-      <c r="P160" s="8"/>
-      <c r="Q160" s="8"/>
+      <c r="A160" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I160" s="14"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N160" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O160" s="14"/>
       <c r="R160" s="8"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="8"/>
-      <c r="O161" s="8"/>
-      <c r="P161" s="8"/>
-      <c r="Q161" s="8"/>
+      <c r="A161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L161" s="6"/>
+      <c r="M161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P161" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R161" s="8"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="8"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>1</v>
+      </c>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
       <c r="L162" s="8"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="8"/>
-      <c r="O162" s="8"/>
-      <c r="P162" s="8"/>
-      <c r="Q162" s="8"/>
+      <c r="M162" s="1">
+        <v>0</v>
+      </c>
+      <c r="N162" s="1">
+        <v>1</v>
+      </c>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
       <c r="R162" s="8"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+      <c r="A163" s="1">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
+      <c r="G163" s="1">
+        <v>10</v>
+      </c>
+      <c r="H163" s="1">
+        <v>1</v>
+      </c>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
       <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-      <c r="Q163" s="8"/>
+      <c r="M163" s="1">
+        <v>10</v>
+      </c>
+      <c r="N163" s="1">
+        <v>1</v>
+      </c>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
       <c r="R163" s="8"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
+      <c r="A164" s="1">
+        <v>20</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
+      <c r="G164" s="1">
+        <v>20</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1</v>
+      </c>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
       <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
-      <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-      <c r="Q164" s="8"/>
+      <c r="M164" s="1">
+        <v>20</v>
+      </c>
+      <c r="N164" s="1">
+        <v>1</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
       <c r="R164" s="8"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
+      <c r="A165" s="1">
+        <v>40</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
+      <c r="G165" s="1">
+        <v>40</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1</v>
+      </c>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
       <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
-      <c r="O165" s="8"/>
-      <c r="P165" s="8"/>
-      <c r="Q165" s="8"/>
+      <c r="M165" s="1">
+        <v>40</v>
+      </c>
+      <c r="N165" s="1">
+        <v>1</v>
+      </c>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
       <c r="R165" s="8"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
+      <c r="A166" s="1">
+        <v>60</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
+      <c r="G166" s="1">
+        <v>60</v>
+      </c>
+      <c r="H166" s="1">
+        <v>1</v>
+      </c>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
       <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="8"/>
-      <c r="P166" s="8"/>
-      <c r="Q166" s="8"/>
+      <c r="M166" s="1">
+        <v>60</v>
+      </c>
+      <c r="N166" s="1">
+        <v>1</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
       <c r="R166" s="8"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
+      <c r="A167" s="1">
+        <v>80</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
+      <c r="G167" s="1">
+        <v>80</v>
+      </c>
+      <c r="H167" s="1">
+        <v>1</v>
+      </c>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
       <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="8"/>
-      <c r="O167" s="8"/>
-      <c r="P167" s="8"/>
-      <c r="Q167" s="8"/>
+      <c r="M167" s="1">
+        <v>80</v>
+      </c>
+      <c r="N167" s="1">
+        <v>1</v>
+      </c>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
       <c r="R167" s="8"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
+      <c r="A168" s="3">
+        <v>100</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
+      <c r="G168" s="3">
+        <v>100</v>
+      </c>
+      <c r="H168" s="1">
+        <v>1</v>
+      </c>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
       <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="8"/>
-      <c r="O168" s="8"/>
-      <c r="P168" s="8"/>
-      <c r="Q168" s="8"/>
+      <c r="M168" s="3">
+        <v>100</v>
+      </c>
+      <c r="N168" s="1">
+        <v>1</v>
+      </c>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
       <c r="R168" s="8"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
+      <c r="A169" s="1">
+        <v>0</v>
+      </c>
+      <c r="B169" s="1">
+        <v>10</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1">
+        <v>10</v>
+      </c>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
       <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="8"/>
-      <c r="O169" s="8"/>
-      <c r="P169" s="8"/>
-      <c r="Q169" s="8"/>
+      <c r="M169" s="1">
+        <v>0</v>
+      </c>
+      <c r="N169" s="1">
+        <v>10</v>
+      </c>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
       <c r="R169" s="8"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
+      <c r="A170" s="1">
+        <v>10</v>
+      </c>
+      <c r="B170" s="1">
+        <v>10</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
+      <c r="G170" s="1">
+        <v>10</v>
+      </c>
+      <c r="H170" s="1">
+        <v>10</v>
+      </c>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
       <c r="L170" s="8"/>
-      <c r="M170" s="8"/>
-      <c r="N170" s="8"/>
-      <c r="O170" s="8"/>
-      <c r="P170" s="8"/>
-      <c r="Q170" s="8"/>
+      <c r="M170" s="1">
+        <v>10</v>
+      </c>
+      <c r="N170" s="1">
+        <v>10</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
       <c r="R170" s="8"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
+      <c r="A171" s="1">
+        <v>20</v>
+      </c>
+      <c r="B171" s="1">
+        <v>10</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
+      <c r="G171" s="1">
+        <v>20</v>
+      </c>
+      <c r="H171" s="1">
+        <v>10</v>
+      </c>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
       <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="8"/>
-      <c r="P171" s="8"/>
-      <c r="Q171" s="8"/>
+      <c r="M171" s="1">
+        <v>20</v>
+      </c>
+      <c r="N171" s="1">
+        <v>10</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
       <c r="R171" s="8"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
+      <c r="A172" s="1">
+        <v>40</v>
+      </c>
+      <c r="B172" s="1">
+        <v>10</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
+      <c r="G172" s="1">
+        <v>40</v>
+      </c>
+      <c r="H172" s="1">
+        <v>10</v>
+      </c>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
       <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
-      <c r="O172" s="8"/>
-      <c r="P172" s="8"/>
-      <c r="Q172" s="8"/>
+      <c r="M172" s="1">
+        <v>40</v>
+      </c>
+      <c r="N172" s="1">
+        <v>10</v>
+      </c>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
       <c r="R172" s="8"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
+      <c r="A173" s="1">
+        <v>60</v>
+      </c>
+      <c r="B173" s="1">
+        <v>10</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
+      <c r="G173" s="1">
+        <v>60</v>
+      </c>
+      <c r="H173" s="1">
+        <v>10</v>
+      </c>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
       <c r="L173" s="8"/>
-      <c r="M173" s="8"/>
-      <c r="N173" s="8"/>
-      <c r="O173" s="8"/>
-      <c r="P173" s="8"/>
-      <c r="Q173" s="8"/>
+      <c r="M173" s="1">
+        <v>60</v>
+      </c>
+      <c r="N173" s="1">
+        <v>10</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
       <c r="R173" s="8"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
+      <c r="A174" s="1">
+        <v>80</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
+      <c r="G174" s="1">
+        <v>80</v>
+      </c>
+      <c r="H174" s="1">
+        <v>10</v>
+      </c>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
       <c r="L174" s="8"/>
-      <c r="M174" s="8"/>
-      <c r="N174" s="8"/>
-      <c r="O174" s="8"/>
-      <c r="P174" s="8"/>
-      <c r="Q174" s="8"/>
+      <c r="M174" s="1">
+        <v>80</v>
+      </c>
+      <c r="N174" s="1">
+        <v>10</v>
+      </c>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
       <c r="R174" s="8"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
+      <c r="A175" s="3">
+        <v>100</v>
+      </c>
+      <c r="B175" s="1">
+        <v>10</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
+      <c r="G175" s="3">
+        <v>100</v>
+      </c>
+      <c r="H175" s="1">
+        <v>10</v>
+      </c>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
       <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-      <c r="Q175" s="8"/>
+      <c r="M175" s="3">
+        <v>100</v>
+      </c>
+      <c r="N175" s="1">
+        <v>10</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
       <c r="R175" s="8"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
+      <c r="A176" s="1">
+        <v>0</v>
+      </c>
+      <c r="B176" s="1">
+        <v>20</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+      <c r="H176" s="1">
+        <v>20</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
       <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="8"/>
-      <c r="O176" s="8"/>
-      <c r="P176" s="8"/>
-      <c r="Q176" s="8"/>
+      <c r="M176" s="1">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1">
+        <v>20</v>
+      </c>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
       <c r="R176" s="8"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
+      <c r="A177" s="1">
+        <v>10</v>
+      </c>
+      <c r="B177" s="1">
+        <v>20</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
+      <c r="G177" s="1">
+        <v>10</v>
+      </c>
+      <c r="H177" s="1">
+        <v>20</v>
+      </c>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
       <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="8"/>
-      <c r="O177" s="8"/>
-      <c r="P177" s="8"/>
-      <c r="Q177" s="8"/>
+      <c r="M177" s="1">
+        <v>10</v>
+      </c>
+      <c r="N177" s="1">
+        <v>20</v>
+      </c>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
       <c r="R177" s="8"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+      <c r="A178" s="1">
+        <v>20</v>
+      </c>
+      <c r="B178" s="1">
+        <v>20</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
+      <c r="G178" s="1">
+        <v>20</v>
+      </c>
+      <c r="H178" s="1">
+        <v>20</v>
+      </c>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
       <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="8"/>
-      <c r="O178" s="8"/>
-      <c r="P178" s="8"/>
-      <c r="Q178" s="8"/>
+      <c r="M178" s="1">
+        <v>20</v>
+      </c>
+      <c r="N178" s="1">
+        <v>20</v>
+      </c>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
       <c r="R178" s="8"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+      <c r="A179" s="1">
+        <v>40</v>
+      </c>
+      <c r="B179" s="1">
+        <v>20</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
+      <c r="G179" s="1">
+        <v>40</v>
+      </c>
+      <c r="H179" s="1">
+        <v>20</v>
+      </c>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
       <c r="L179" s="8"/>
-      <c r="M179" s="8"/>
-      <c r="N179" s="8"/>
-      <c r="O179" s="8"/>
-      <c r="P179" s="8"/>
-      <c r="Q179" s="8"/>
+      <c r="M179" s="1">
+        <v>40</v>
+      </c>
+      <c r="N179" s="1">
+        <v>20</v>
+      </c>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
       <c r="R179" s="8"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
+      <c r="A180" s="1">
+        <v>60</v>
+      </c>
+      <c r="B180" s="1">
+        <v>20</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
-      <c r="K180" s="8"/>
+      <c r="G180" s="1">
+        <v>60</v>
+      </c>
+      <c r="H180" s="1">
+        <v>20</v>
+      </c>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
       <c r="L180" s="8"/>
-      <c r="M180" s="8"/>
-      <c r="N180" s="8"/>
-      <c r="O180" s="8"/>
-      <c r="P180" s="8"/>
-      <c r="Q180" s="8"/>
+      <c r="M180" s="1">
+        <v>60</v>
+      </c>
+      <c r="N180" s="1">
+        <v>20</v>
+      </c>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
       <c r="R180" s="8"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
+      <c r="A181" s="1">
+        <v>80</v>
+      </c>
+      <c r="B181" s="1">
+        <v>20</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
+      <c r="G181" s="1">
+        <v>80</v>
+      </c>
+      <c r="H181" s="1">
+        <v>20</v>
+      </c>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
       <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="8"/>
-      <c r="O181" s="8"/>
-      <c r="P181" s="8"/>
-      <c r="Q181" s="8"/>
+      <c r="M181" s="1">
+        <v>80</v>
+      </c>
+      <c r="N181" s="1">
+        <v>20</v>
+      </c>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
       <c r="R181" s="8"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
+      <c r="A182" s="3">
+        <v>100</v>
+      </c>
+      <c r="B182" s="1">
+        <v>20</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
+      <c r="G182" s="3">
+        <v>100</v>
+      </c>
+      <c r="H182" s="1">
+        <v>20</v>
+      </c>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
       <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8"/>
-      <c r="O182" s="8"/>
-      <c r="P182" s="8"/>
-      <c r="Q182" s="8"/>
+      <c r="M182" s="3">
+        <v>100</v>
+      </c>
+      <c r="N182" s="1">
+        <v>20</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
       <c r="R182" s="8"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
+      <c r="A183" s="1">
+        <v>0</v>
+      </c>
+      <c r="B183" s="3">
+        <v>50</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>50</v>
+      </c>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
       <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
-      <c r="N183" s="8"/>
-      <c r="O183" s="8"/>
-      <c r="P183" s="8"/>
-      <c r="Q183" s="8"/>
+      <c r="M183" s="1">
+        <v>0</v>
+      </c>
+      <c r="N183" s="3">
+        <v>50</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
       <c r="R183" s="8"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
+      <c r="A184" s="1">
+        <v>10</v>
+      </c>
+      <c r="B184" s="3">
+        <v>50</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
+      <c r="G184" s="1">
+        <v>10</v>
+      </c>
+      <c r="H184" s="3">
+        <v>50</v>
+      </c>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
       <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="8"/>
-      <c r="O184" s="8"/>
-      <c r="P184" s="8"/>
-      <c r="Q184" s="8"/>
+      <c r="M184" s="1">
+        <v>10</v>
+      </c>
+      <c r="N184" s="3">
+        <v>50</v>
+      </c>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
       <c r="R184" s="8"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
+      <c r="A185" s="1">
+        <v>20</v>
+      </c>
+      <c r="B185" s="3">
+        <v>50</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
+      <c r="G185" s="1">
+        <v>20</v>
+      </c>
+      <c r="H185" s="3">
+        <v>50</v>
+      </c>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
       <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="8"/>
-      <c r="O185" s="8"/>
-      <c r="P185" s="8"/>
-      <c r="Q185" s="8"/>
+      <c r="M185" s="1">
+        <v>20</v>
+      </c>
+      <c r="N185" s="3">
+        <v>50</v>
+      </c>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
       <c r="R185" s="8"/>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
+      <c r="A186" s="1">
+        <v>40</v>
+      </c>
+      <c r="B186" s="3">
+        <v>50</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
+      <c r="G186" s="1">
+        <v>40</v>
+      </c>
+      <c r="H186" s="3">
+        <v>50</v>
+      </c>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
       <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="8"/>
-      <c r="O186" s="8"/>
-      <c r="P186" s="8"/>
-      <c r="Q186" s="8"/>
+      <c r="M186" s="1">
+        <v>40</v>
+      </c>
+      <c r="N186" s="3">
+        <v>50</v>
+      </c>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
       <c r="R186" s="8"/>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
+      <c r="A187" s="1">
+        <v>60</v>
+      </c>
+      <c r="B187" s="3">
+        <v>50</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
-      <c r="K187" s="8"/>
+      <c r="G187" s="1">
+        <v>60</v>
+      </c>
+      <c r="H187" s="3">
+        <v>50</v>
+      </c>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
       <c r="L187" s="8"/>
-      <c r="M187" s="8"/>
-      <c r="N187" s="8"/>
-      <c r="O187" s="8"/>
-      <c r="P187" s="8"/>
-      <c r="Q187" s="8"/>
+      <c r="M187" s="1">
+        <v>60</v>
+      </c>
+      <c r="N187" s="3">
+        <v>50</v>
+      </c>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
       <c r="R187" s="8"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
+      <c r="A188" s="1">
+        <v>80</v>
+      </c>
+      <c r="B188" s="3">
+        <v>50</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
-      <c r="K188" s="8"/>
+      <c r="G188" s="1">
+        <v>80</v>
+      </c>
+      <c r="H188" s="3">
+        <v>50</v>
+      </c>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
       <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
-      <c r="N188" s="8"/>
-      <c r="O188" s="8"/>
-      <c r="P188" s="8"/>
-      <c r="Q188" s="8"/>
+      <c r="M188" s="1">
+        <v>80</v>
+      </c>
+      <c r="N188" s="3">
+        <v>50</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
       <c r="R188" s="8"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
+      <c r="A189" s="3">
+        <v>100</v>
+      </c>
+      <c r="B189" s="3">
+        <v>50</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
+      <c r="G189" s="3">
+        <v>100</v>
+      </c>
+      <c r="H189" s="3">
+        <v>50</v>
+      </c>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
       <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
-      <c r="N189" s="8"/>
-      <c r="O189" s="8"/>
-      <c r="P189" s="8"/>
-      <c r="Q189" s="8"/>
+      <c r="M189" s="3">
+        <v>100</v>
+      </c>
+      <c r="N189" s="3">
+        <v>50</v>
+      </c>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
       <c r="R189" s="8"/>
     </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>0</v>
+      </c>
+      <c r="B190" s="4">
+        <v>100</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
+      <c r="H190" s="4">
+        <v>100</v>
+      </c>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="1">
+        <v>0</v>
+      </c>
+      <c r="N190" s="4">
+        <v>100</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>10</v>
+      </c>
+      <c r="B191" s="4">
+        <v>100</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="1">
+        <v>10</v>
+      </c>
+      <c r="H191" s="4">
+        <v>100</v>
+      </c>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="1">
+        <v>10</v>
+      </c>
+      <c r="N191" s="4">
+        <v>100</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>20</v>
+      </c>
+      <c r="B192" s="4">
+        <v>100</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="1">
+        <v>20</v>
+      </c>
+      <c r="H192" s="4">
+        <v>100</v>
+      </c>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="1">
+        <v>20</v>
+      </c>
+      <c r="N192" s="4">
+        <v>100</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>40</v>
+      </c>
+      <c r="B193" s="4">
+        <v>100</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="1">
+        <v>40</v>
+      </c>
+      <c r="H193" s="4">
+        <v>100</v>
+      </c>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="1">
+        <v>40</v>
+      </c>
+      <c r="N193" s="4">
+        <v>100</v>
+      </c>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>60</v>
+      </c>
+      <c r="B194" s="4">
+        <v>100</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="1">
+        <v>60</v>
+      </c>
+      <c r="H194" s="4">
+        <v>100</v>
+      </c>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="L194" s="8"/>
+      <c r="M194" s="1">
+        <v>60</v>
+      </c>
+      <c r="N194" s="4">
+        <v>100</v>
+      </c>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>80</v>
+      </c>
+      <c r="B195" s="4">
+        <v>100</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="1">
+        <v>80</v>
+      </c>
+      <c r="H195" s="4">
+        <v>100</v>
+      </c>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="L195" s="8"/>
+      <c r="M195" s="1">
+        <v>80</v>
+      </c>
+      <c r="N195" s="4">
+        <v>100</v>
+      </c>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>100</v>
+      </c>
+      <c r="B196" s="4">
+        <v>100</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="3">
+        <v>100</v>
+      </c>
+      <c r="H196" s="4">
+        <v>100</v>
+      </c>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="L196" s="8"/>
+      <c r="M196" s="3">
+        <v>100</v>
+      </c>
+      <c r="N196" s="4">
+        <v>100</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="B160:C160"/>
     <mergeCell ref="A82:J82"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="I83:J83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/common_test_shell/resultformat.xlsx
+++ b/tests/common_test_shell/resultformat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE66051-259E-4484-BCD2-CD3233A6AD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9958B-1572-4670-8DD6-060592607FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="52">
   <si>
     <t>模拟延迟</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -210,6 +210,14 @@
     <t>remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>随机写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -337,13 +345,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,19 +634,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R196"/>
+  <dimension ref="A1:W196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P162" sqref="P162"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -663,8 +671,17 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,8 +727,23 @@
       <c r="Q2" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -739,8 +771,17 @@
       <c r="O3" s="9"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -768,8 +809,17 @@
       <c r="O4" s="10"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S4" s="1">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -797,8 +847,17 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S5" s="1">
+        <v>20</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -826,8 +885,17 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S6" s="1">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -855,8 +923,17 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="1">
+        <v>60</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>80</v>
       </c>
@@ -884,8 +961,17 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="1">
+        <v>80</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>100</v>
       </c>
@@ -913,8 +999,17 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -942,8 +1037,17 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -971,8 +1075,17 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S11" s="1">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -1000,8 +1113,17 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12" s="1">
+        <v>20</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -1029,8 +1151,17 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S13" s="1">
+        <v>40</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>60</v>
       </c>
@@ -1058,8 +1189,17 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="1">
+        <v>60</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -1087,8 +1227,17 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S15" s="1">
+        <v>80</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>100</v>
       </c>
@@ -1116,8 +1265,17 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S16" s="3">
+        <v>100</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1145,8 +1303,17 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -1174,8 +1341,17 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="1">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1203,8 +1379,17 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S19" s="1">
+        <v>20</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>40</v>
       </c>
@@ -1232,8 +1417,17 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="1">
+        <v>40</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>60</v>
       </c>
@@ -1261,8 +1455,17 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="1">
+        <v>60</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>80</v>
       </c>
@@ -1290,8 +1493,17 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="1">
+        <v>80</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>100</v>
       </c>
@@ -1319,8 +1531,17 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1348,8 +1569,17 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -1377,8 +1607,17 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S25" s="1">
+        <v>10</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1406,8 +1645,17 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="1">
+        <v>20</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -1435,8 +1683,17 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="1">
+        <v>40</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>60</v>
       </c>
@@ -1464,8 +1721,17 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S28" s="1">
+        <v>60</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>80</v>
       </c>
@@ -1493,8 +1759,17 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S29" s="1">
+        <v>80</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>100</v>
       </c>
@@ -1522,8 +1797,17 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>100</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1551,8 +1835,17 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -1580,8 +1873,17 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="1">
+        <v>10</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -1609,8 +1911,17 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="1">
+        <v>20</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40</v>
       </c>
@@ -1638,8 +1949,17 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S34" s="1">
+        <v>40</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>60</v>
       </c>
@@ -1667,8 +1987,17 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="1">
+        <v>60</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>80</v>
       </c>
@@ -1696,8 +2025,17 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S36" s="1">
+        <v>80</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>100</v>
       </c>
@@ -1725,8 +2063,17 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S37" s="3">
+        <v>100</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1754,8 +2101,17 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1783,8 +2139,17 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S39" s="1">
+        <v>10</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -1812,8 +2177,17 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S40" s="1">
+        <v>20</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1841,8 +2215,17 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="1">
+        <v>40</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>60</v>
       </c>
@@ -1870,8 +2253,17 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S42" s="1">
+        <v>60</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>80</v>
       </c>
@@ -1899,8 +2291,17 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S43" s="1">
+        <v>80</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>100</v>
       </c>
@@ -1928,8 +2329,17 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -1957,8 +2367,17 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>10</v>
       </c>
@@ -1986,8 +2405,17 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="1">
+        <v>10</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -2015,8 +2443,17 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="1">
+        <v>20</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40</v>
       </c>
@@ -2044,8 +2481,17 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="1">
+        <v>40</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -2073,8 +2519,17 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S49" s="1">
+        <v>60</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>80</v>
       </c>
@@ -2102,8 +2557,17 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S50" s="1">
+        <v>80</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>100</v>
       </c>
@@ -2131,8 +2595,17 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>100</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2160,8 +2633,17 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -2189,8 +2671,17 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S53" s="1">
+        <v>10</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>20</v>
       </c>
@@ -2218,8 +2709,17 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="1">
+        <v>20</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>40</v>
       </c>
@@ -2247,8 +2747,17 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S55" s="1">
+        <v>40</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>60</v>
       </c>
@@ -2276,8 +2785,17 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S56" s="1">
+        <v>60</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>80</v>
       </c>
@@ -2305,8 +2823,17 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S57" s="1">
+        <v>80</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>100</v>
       </c>
@@ -2334,8 +2861,17 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -2363,8 +2899,17 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>10</v>
       </c>
@@ -2392,8 +2937,17 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S60" s="1">
+        <v>10</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>20</v>
       </c>
@@ -2421,8 +2975,17 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S61" s="1">
+        <v>20</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>40</v>
       </c>
@@ -2450,8 +3013,17 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S62" s="1">
+        <v>40</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -2479,8 +3051,17 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S63" s="1">
+        <v>60</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>80</v>
       </c>
@@ -2508,8 +3089,17 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S64" s="1">
+        <v>80</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>100</v>
       </c>
@@ -2537,8 +3127,17 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>100</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2566,8 +3165,17 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>10</v>
       </c>
@@ -2595,8 +3203,17 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S67" s="1">
+        <v>10</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>20</v>
       </c>
@@ -2624,8 +3241,17 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S68" s="1">
+        <v>20</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>40</v>
       </c>
@@ -2653,8 +3279,17 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S69" s="1">
+        <v>40</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>60</v>
       </c>
@@ -2682,8 +3317,17 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S70" s="1">
+        <v>60</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>80</v>
       </c>
@@ -2711,8 +3355,17 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S71" s="1">
+        <v>80</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>100</v>
       </c>
@@ -2740,8 +3393,17 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>100</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2769,8 +3431,17 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>10</v>
       </c>
@@ -2798,8 +3469,17 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S74" s="1">
+        <v>10</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>20</v>
       </c>
@@ -2827,8 +3507,17 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S75" s="1">
+        <v>20</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>40</v>
       </c>
@@ -2856,8 +3545,17 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="1">
+        <v>40</v>
+      </c>
+      <c r="T76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>60</v>
       </c>
@@ -2885,8 +3583,17 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S77" s="1">
+        <v>60</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>80</v>
       </c>
@@ -2914,8 +3621,17 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S78" s="1">
+        <v>80</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>100</v>
       </c>
@@ -2943,6 +3659,15 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
+      <c r="S79" s="3">
+        <v>100</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
@@ -2965,16 +3690,16 @@
       <c r="R81" s="8"/>
     </row>
     <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
       <c r="K82" s="7"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -5144,18 +5869,18 @@
       <c r="G160" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H160" s="14" t="s">
+      <c r="H160" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I160" s="14"/>
+      <c r="I160" s="12"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N160" s="14" t="s">
+      <c r="N160" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O160" s="14"/>
+      <c r="O160" s="12"/>
       <c r="R160" s="8"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">

--- a/tests/common_test_shell/resultformat.xlsx
+++ b/tests/common_test_shell/resultformat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9958B-1572-4670-8DD6-060592607FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF376E-A3CE-4498-B7BF-BDACD0E9012A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单线程多文件读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单线程多文件写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺序写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +208,14 @@
   </si>
   <si>
     <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程单文件写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程单文件读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,13 +651,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -672,10 +672,10 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="S1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -3714,7 +3714,7 @@
         <v>30</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C83" s="13"/>
       <c r="E83" s="5"/>
@@ -3724,7 +3724,7 @@
         <v>31</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J83" s="13"/>
       <c r="L83" s="5"/>
@@ -5858,27 +5858,27 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="C160" s="13"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="H160" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="I160" s="12"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N160" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O160" s="12"/>
       <c r="R160" s="8"/>
@@ -5891,7 +5891,7 @@
         <v>33</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>26</v>
@@ -5905,7 +5905,7 @@
         <v>33</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>26</v>
@@ -5918,7 +5918,7 @@
         <v>33</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P161" s="4" t="s">
         <v>26</v>
